--- a/target/test-classes/MDL.xlsx
+++ b/target/test-classes/MDL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>CA-UV01WKWJ</t>
+  </si>
+  <si>
+    <t>CA-OZAVRFTM</t>
+  </si>
+  <si>
+    <t>CA-ANCWO7CK</t>
+  </si>
+  <si>
+    <t>CA-JFSU3BGZ</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
